--- a/base roulante_v2/pièces_base ammovible.xlsx
+++ b/base roulante_v2/pièces_base ammovible.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aegir\Documents\robotik 2017\git\base roulante_v2\conception\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aegir\Documents\robotik 2017\git\base roulante_v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
   <si>
     <t>Elément</t>
   </si>
@@ -113,13 +113,25 @@
     <t>http://www.banebots.com/category/T40P-2875.html</t>
   </si>
   <si>
-    <t>http://www.gotronic.fr/art-palier-a-roulements-axe-5mm-11798.htm</t>
-  </si>
-  <si>
-    <t>imprimé</t>
-  </si>
-  <si>
     <t>fourni avec 10</t>
+  </si>
+  <si>
+    <t>http://www.gotronic.fr/art-palier-a-roulements-axe-6mm-11799.htm</t>
+  </si>
+  <si>
+    <t>depuis profilé carré  https://www.leroymerlin.fr/v3/p/produits/tube-carre-aluminium-epoxy-l-1-m-x-l-2-35-cm-x-h-2-35-cm-e17348#&amp;xtmc=tube_aluminium&amp;xtcr=15</t>
+  </si>
+  <si>
+    <t>Tube laiton pour palier</t>
+  </si>
+  <si>
+    <t>acheté</t>
+  </si>
+  <si>
+    <t>https://www.leroymerlin.fr/v3/p/produits/tube-rond-laiton-brut-l-1-m-x-diam-6-mm-e1400089001#&amp;xtmc=tube_rond__6&amp;xtcr=1</t>
+  </si>
+  <si>
+    <t>Vis 5mm * 15 mini</t>
   </si>
 </sst>
 </file>
@@ -448,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -578,7 +590,7 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -654,8 +666,8 @@
       <c r="D11">
         <v>2</v>
       </c>
-      <c r="E11" t="s">
-        <v>29</v>
+      <c r="E11" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -672,13 +684,45 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E5" r:id="rId1"/>
     <hyperlink ref="E6" r:id="rId2"/>
+    <hyperlink ref="E11" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
